--- a/W7/Excel/SWP391-OnlineShop-Project Tracking.xlsx
+++ b/W7/Excel/SWP391-OnlineShop-Project Tracking.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="32">
   <si>
     <t>#</t>
   </si>
@@ -35,9 +35,6 @@
     <t>Feature</t>
   </si>
   <si>
-    <t>Screen/Function Description</t>
-  </si>
-  <si>
     <t>In Charge</t>
   </si>
   <si>
@@ -98,30 +95,18 @@
     <t>Public</t>
   </si>
   <si>
-    <t>Show HomePage: Title, post information includes its thumbnail, brief-info, product information includes its thumbnail, title, brief information</t>
-  </si>
-  <si>
     <t>Show products</t>
   </si>
   <si>
     <t>Makerting</t>
   </si>
   <si>
-    <t>Display product list, product category</t>
-  </si>
-  <si>
     <t>Blog list</t>
   </si>
   <si>
     <t>List Account</t>
   </si>
   <si>
-    <t>Show list of user's accounts</t>
-  </si>
-  <si>
-    <t>Show the posts paginatedly (sorted by updated date) + the right sider with the post search box, post categories, five featured posts (thumbnail, title); Post information includes its thumbnail, title, category, post date, brief-info; the user is redirected to the Blog Details page on his/her clicking on a post, redirected to this Blogs List page if the user clicks on a post category</t>
-  </si>
-  <si>
     <t>Search product</t>
   </si>
   <si>
@@ -138,21 +123,6 @@
   </si>
   <si>
     <t>Seller</t>
-  </si>
-  <si>
-    <t>Search products by product name, category name, price</t>
-  </si>
-  <si>
-    <t>Allows admins to find user accounts quickly</t>
-  </si>
-  <si>
-    <t>The screen is used to display system or administrator messages to the user</t>
-  </si>
-  <si>
-    <t>Allow admin to update user account role</t>
-  </si>
-  <si>
-    <t>Screen that allows sellers to add, edit and delete Blogs</t>
   </si>
 </sst>
 </file>
@@ -228,7 +198,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -241,14 +211,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -271,6 +235,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -302,9 +279,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -314,14 +288,17 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -549,7 +526,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -558,7 +535,7 @@
     <col min="2" max="2" width="20.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="14" style="2" customWidth="1"/>
-    <col min="5" max="5" width="63.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" style="2" customWidth="1"/>
     <col min="6" max="6" width="16" style="2" customWidth="1"/>
     <col min="7" max="7" width="7.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="8" style="2" customWidth="1"/>
@@ -568,12 +545,12 @@
   <sheetData>
     <row r="1" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -581,13 +558,13 @@
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>2</v>
@@ -595,286 +572,263 @@
       <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
     </row>
     <row r="4" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
-        <f>ROW()-3</f>
+      <c r="A4" s="9">
+        <f t="shared" ref="A4:A12" si="0">ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>23</v>
+      <c r="D4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>17</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="13"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
-        <f>ROW()-3</f>
+      <c r="A5" s="9">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>26</v>
+      <c r="B5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>17</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="13"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" ht="88.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
-        <f>ROW()-3</f>
+      <c r="A6" s="9">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>30</v>
+      <c r="B6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="10" t="s">
-        <v>9</v>
-      </c>
+      <c r="H6" s="13"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
-        <f>ROW()-3</f>
+      <c r="A7" s="9">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>29</v>
+      <c r="B7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="10" t="s">
-        <v>9</v>
-      </c>
+      <c r="H7" s="13"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
-        <f>ROW()-3</f>
+      <c r="A8" s="9">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>37</v>
+      <c r="B8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="10" t="s">
         <v>7</v>
       </c>
+      <c r="G8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="13"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
-        <f>ROW()-3</f>
+      <c r="A9" s="9">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>7</v>
-      </c>
+      <c r="H9" s="13"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
-        <f>ROW()-3</f>
+      <c r="A10" s="9">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>39</v>
+      <c r="B10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="10" t="s">
         <v>10</v>
       </c>
+      <c r="G10" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="13"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
     </row>
     <row r="11" spans="1:10" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
-        <f>ROW()-3</f>
+      <c r="A11" s="9">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>40</v>
+      <c r="B11" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="10" t="s">
         <v>10</v>
       </c>
+      <c r="G11" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="13"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
     <row r="12" spans="1:10" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
-        <f>ROW()-3</f>
+      <c r="A12" s="9">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>41</v>
+      <c r="B12" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>10</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="13"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:E7"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F12">
       <formula1>"To Do, Doing, Done, Updated"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:H12">
       <formula1>"iter1, iter2, iter3, iter4,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:H4">
       <formula1>"iter1, iter2, iter3, iter4"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I12">

--- a/W7/Excel/SWP391-OnlineShop-Project Tracking.xlsx
+++ b/W7/Excel/SWP391-OnlineShop-Project Tracking.xlsx
@@ -12,10 +12,10 @@
     <workbookView xWindow="3204" yWindow="504" windowWidth="24696" windowHeight="16236"/>
   </bookViews>
   <sheets>
-    <sheet name="Tracking" sheetId="18" r:id="rId1"/>
+    <sheet name="Tracking Report" sheetId="18" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tracking!$A$3:$E$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tracking Report'!$A$3:$E$7</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="72">
   <si>
     <t>#</t>
   </si>
@@ -59,18 +59,9 @@
     <t>iter4</t>
   </si>
   <si>
-    <t>To Do</t>
-  </si>
-  <si>
     <t>Common</t>
   </si>
   <si>
-    <t>User</t>
-  </si>
-  <si>
-    <t>Actor</t>
-  </si>
-  <si>
     <t>Doing</t>
   </si>
   <si>
@@ -92,9 +83,6 @@
     <t>Home page</t>
   </si>
   <si>
-    <t>Public</t>
-  </si>
-  <si>
     <t>Show products</t>
   </si>
   <si>
@@ -104,32 +92,164 @@
     <t>Blog list</t>
   </si>
   <si>
+    <t>Search product</t>
+  </si>
+  <si>
+    <t>Notification</t>
+  </si>
+  <si>
+    <t>Manage Blogs</t>
+  </si>
+  <si>
+    <t>Seller</t>
+  </si>
+  <si>
+    <t>Manage requests</t>
+  </si>
+  <si>
+    <t>Admin Dashboard</t>
+  </si>
+  <si>
+    <t>Change password</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Simple</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Register for seller</t>
+  </si>
+  <si>
+    <t>AnhVHHE163109</t>
+  </si>
+  <si>
+    <t>View Order</t>
+  </si>
+  <si>
+    <t>Order Detail</t>
+  </si>
+  <si>
+    <t>Cancel Order</t>
+  </si>
+  <si>
+    <t>View Shop</t>
+  </si>
+  <si>
+    <t>Reply Feedback</t>
+  </si>
+  <si>
+    <t>Contact Us</t>
+  </si>
+  <si>
+    <t>HieuNTHE160326</t>
+  </si>
+  <si>
+    <t>Register</t>
+  </si>
+  <si>
+    <t>User Profile</t>
+  </si>
+  <si>
+    <t>Update Profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Blog Detail</t>
+  </si>
+  <si>
+    <t>Search Blog</t>
+  </si>
+  <si>
+    <t>View Service</t>
+  </si>
+  <si>
+    <t>Search Service</t>
+  </si>
+  <si>
+    <t>Add feedback</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>Seller Dashboard</t>
+  </si>
+  <si>
+    <t>MinhTCHE161354</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Add Address</t>
+  </si>
+  <si>
+    <t>View Cart</t>
+  </si>
+  <si>
+    <t>Create Order</t>
+  </si>
+  <si>
     <t>List Account</t>
   </si>
   <si>
-    <t>Search product</t>
-  </si>
-  <si>
-    <t>Search account</t>
-  </si>
-  <si>
-    <t>Notification</t>
-  </si>
-  <si>
-    <t>Update account role</t>
-  </si>
-  <si>
-    <t>Manage Blogs</t>
-  </si>
-  <si>
-    <t>Seller</t>
+    <t>Account Detail</t>
+  </si>
+  <si>
+    <t>Manage Order</t>
+  </si>
+  <si>
+    <t>Manage Service</t>
+  </si>
+  <si>
+    <t>Chat with seller</t>
+  </si>
+  <si>
+    <t>ThaiLSHE160614</t>
+  </si>
+  <si>
+    <t>Forgot Password</t>
+  </si>
+  <si>
+    <t>Product Detail</t>
+  </si>
+  <si>
+    <t>Add to cart</t>
+  </si>
+  <si>
+    <t>Delete Product in Cart</t>
+  </si>
+  <si>
+    <t>Service Detail</t>
+  </si>
+  <si>
+    <t>List Shop</t>
+  </si>
+  <si>
+    <t>Shop Details</t>
+  </si>
+  <si>
+    <t>Manage Product</t>
+  </si>
+  <si>
+    <t>Manage Feedback</t>
+  </si>
+  <si>
+    <t>Search Account</t>
+  </si>
+  <si>
+    <t>Search Shop</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -197,8 +317,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -208,6 +334,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -239,10 +377,10 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
+      <right style="thin">
         <color indexed="64"/>
-      </top>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -256,7 +394,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -291,14 +429,62 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -522,49 +708,53 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="14" style="2" customWidth="1"/>
     <col min="5" max="5" width="17.5546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="2" customWidth="1"/>
     <col min="7" max="7" width="7.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="8" style="2" customWidth="1"/>
-    <col min="10" max="10" width="45.44140625" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="10.77734375" style="2"/>
+    <col min="10" max="10" width="4.33203125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="22.21875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="10.77734375" style="2"/>
+    <col min="14" max="14" width="17" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="10.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>2</v>
@@ -572,263 +762,1143 @@
       <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <f t="shared" ref="A4:A12" si="0">ROW()-3</f>
         <v>1</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="13"/>
+      <c r="G4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="12"/>
       <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-    </row>
-    <row r="5" spans="1:10" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J4" s="9">
+        <f t="shared" ref="J4:J12" si="1">ROW()-3</f>
+        <v>1</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="13"/>
+      <c r="G5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="12"/>
       <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-    </row>
-    <row r="6" spans="1:10" ht="88.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J5" s="9">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="E6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="12"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="9">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="12" t="s">
+      <c r="M6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="P6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-    </row>
-    <row r="7" spans="1:10" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+    </row>
+    <row r="7" spans="1:16" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="8" t="s">
+      <c r="D7" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="9">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="12" t="s">
+      <c r="M7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="P7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="13"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-    </row>
-    <row r="8" spans="1:10" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:16" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="E8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="13">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="12" t="s">
+      <c r="M8" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O8" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="P8" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="13"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-    </row>
-    <row r="9" spans="1:10" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+    </row>
+    <row r="9" spans="1:16" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="9" t="s">
+      <c r="B9" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="12"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="13">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N9" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O9" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="P9" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="12"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="18">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="L10" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="13"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-    </row>
-    <row r="10" spans="1:10" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="12" t="s">
+      <c r="M10" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="N10" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="O10" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="P10" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-    </row>
-    <row r="11" spans="1:10" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+    </row>
+    <row r="11" spans="1:16" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="18">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="9" t="s">
+      <c r="B11" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="12"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="13">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N11" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O11" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="12" t="s">
+      <c r="P11" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-    </row>
-    <row r="12" spans="1:10" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:16" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B12" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>31</v>
-      </c>
       <c r="E12" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="13"/>
+      <c r="H12" s="12"/>
       <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
+      <c r="J12" s="13">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N12" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O12" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="P12" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>1</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="9">
+        <v>1</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N16" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="O16" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="P16" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>2</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="13">
+        <v>2</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="M17" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="N17" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="O17" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="P17" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>3</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" s="9">
+        <v>3</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="M18" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="N18" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="O18" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="P18" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="18">
+        <v>4</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="J19" s="13">
+        <v>4</v>
+      </c>
+      <c r="K19" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="L19" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="M19" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="N19" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="O19" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="P19" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="18">
+        <v>5</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="J20" s="18">
+        <v>5</v>
+      </c>
+      <c r="K20" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="L20" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="M20" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="N20" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="O20" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="P20" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="18">
+        <v>6</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="J21" s="18">
+        <v>6</v>
+      </c>
+      <c r="K21" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="L21" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="N21" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="O21" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="P21" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="18">
+        <v>7</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" s="13">
+        <v>7</v>
+      </c>
+      <c r="K22" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="L22" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="M22" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N22" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="O22" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="P22" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="13">
+        <v>8</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="J23" s="13">
+        <v>8</v>
+      </c>
+      <c r="K23" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="L23" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="M23" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N23" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="O23" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="P23" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="13">
+        <v>9</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="J24" s="13">
+        <v>9</v>
+      </c>
+      <c r="K24" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="L24" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="M24" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N24" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="O24" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="P24" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>1</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
+        <v>2</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
+        <v>3</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="18">
+        <v>4</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" s="18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="13">
+        <v>5</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="18">
+        <v>6</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="13">
+        <v>7</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="13">
+        <v>8</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="13">
+        <v>9</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A3:E7"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F12 O4:O12 F16:F24 O16:O24 F28:F36">
       <formula1>"To Do, Doing, Done, Updated"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:H12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:H12 P5:P12 G17:G24 P17:P24 G29:G36">
       <formula1>"iter1, iter2, iter3, iter4,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:H4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:H4 P4 G16 P16 G28">
       <formula1>"iter1, iter2, iter3, iter4"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I12">
@@ -836,5 +1906,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/W7/Excel/SWP391-OnlineShop-Project Tracking.xlsx
+++ b/W7/Excel/SWP391-OnlineShop-Project Tracking.xlsx
@@ -143,9 +143,6 @@
     <t>Reply Feedback</t>
   </si>
   <si>
-    <t>Contact Us</t>
-  </si>
-  <si>
     <t>HieuNTHE160326</t>
   </si>
   <si>
@@ -243,6 +240,9 @@
   </si>
   <si>
     <t>Search Shop</t>
+  </si>
+  <si>
+    <t>Manage Blog Detail</t>
   </si>
 </sst>
 </file>
@@ -394,7 +394,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -484,6 +484,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -710,9 +713,9 @@
   </sheetPr>
   <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1052,26 +1055,26 @@
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="7"/>
-      <c r="J9" s="13">
+      <c r="J9" s="18">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="K9" s="16" t="s">
+      <c r="K9" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="L9" s="13" t="s">
+      <c r="L9" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="M9" s="13" t="s">
+      <c r="M9" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="N9" s="14" t="s">
+      <c r="N9" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="O9" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="P9" s="13" t="s">
+      <c r="O9" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="P9" s="18" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1105,7 +1108,7 @@
         <v>7</v>
       </c>
       <c r="K10" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L10" s="18" t="s">
         <v>5</v>
@@ -1129,7 +1132,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>5</v>
@@ -1201,10 +1204,10 @@
         <v>9</v>
       </c>
       <c r="K12" s="16" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="L12" s="13" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="M12" s="13" t="s">
         <v>30</v>
@@ -1268,7 +1271,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>10</v>
@@ -1277,7 +1280,7 @@
         <v>29</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>7</v>
@@ -1289,7 +1292,7 @@
         <v>1</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L16" s="9" t="s">
         <v>10</v>
@@ -1298,7 +1301,7 @@
         <v>29</v>
       </c>
       <c r="N16" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O16" s="9" t="s">
         <v>7</v>
@@ -1312,7 +1315,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>10</v>
@@ -1321,7 +1324,7 @@
         <v>29</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F17" s="9" t="s">
         <v>7</v>
@@ -1329,25 +1332,25 @@
       <c r="G17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J17" s="13">
+      <c r="J17" s="18">
         <v>2</v>
       </c>
-      <c r="K17" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="L17" s="13" t="s">
+      <c r="K17" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="L17" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="M17" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="N17" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="O17" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="P17" s="13" t="s">
+      <c r="M17" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="N17" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="O17" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="P17" s="18" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1356,7 +1359,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>10</v>
@@ -1365,7 +1368,7 @@
         <v>29</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F18" s="9" t="s">
         <v>7</v>
@@ -1377,16 +1380,16 @@
         <v>3</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M18" s="9" t="s">
         <v>30</v>
       </c>
       <c r="N18" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O18" s="9" t="s">
         <v>7</v>
@@ -1400,7 +1403,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19" s="18" t="s">
         <v>10</v>
@@ -1409,7 +1412,7 @@
         <v>29</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F19" s="18" t="s">
         <v>7</v>
@@ -1421,16 +1424,16 @@
         <v>4</v>
       </c>
       <c r="K19" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L19" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M19" s="13" t="s">
         <v>29</v>
       </c>
       <c r="N19" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O19" s="13" t="s">
         <v>11</v>
@@ -1444,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C20" s="18" t="s">
         <v>10</v>
@@ -1453,7 +1456,7 @@
         <v>29</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F20" s="18" t="s">
         <v>7</v>
@@ -1465,7 +1468,7 @@
         <v>5</v>
       </c>
       <c r="K20" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L20" s="18" t="s">
         <v>5</v>
@@ -1474,7 +1477,7 @@
         <v>29</v>
       </c>
       <c r="N20" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O20" s="18" t="s">
         <v>7</v>
@@ -1488,7 +1491,7 @@
         <v>6</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C21" s="18" t="s">
         <v>10</v>
@@ -1497,7 +1500,7 @@
         <v>29</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F21" s="18" t="s">
         <v>7</v>
@@ -1509,7 +1512,7 @@
         <v>6</v>
       </c>
       <c r="K21" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L21" s="18" t="s">
         <v>5</v>
@@ -1518,7 +1521,7 @@
         <v>29</v>
       </c>
       <c r="N21" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O21" s="18" t="s">
         <v>7</v>
@@ -1532,7 +1535,7 @@
         <v>7</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C22" s="18" t="s">
         <v>10</v>
@@ -1541,7 +1544,7 @@
         <v>29</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F22" s="18" t="s">
         <v>7</v>
@@ -1553,7 +1556,7 @@
         <v>7</v>
       </c>
       <c r="K22" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L22" s="13" t="s">
         <v>24</v>
@@ -1562,7 +1565,7 @@
         <v>30</v>
       </c>
       <c r="N22" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O22" s="13" t="s">
         <v>11</v>
@@ -1576,16 +1579,16 @@
         <v>8</v>
       </c>
       <c r="B23" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="13" t="s">
         <v>47</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>48</v>
       </c>
       <c r="D23" s="13" t="s">
         <v>30</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F23" s="13" t="s">
         <v>11</v>
@@ -1597,7 +1600,7 @@
         <v>8</v>
       </c>
       <c r="K23" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L23" s="13" t="s">
         <v>5</v>
@@ -1606,7 +1609,7 @@
         <v>30</v>
       </c>
       <c r="N23" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O23" s="13" t="s">
         <v>11</v>
@@ -1620,7 +1623,7 @@
         <v>9</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>24</v>
@@ -1629,7 +1632,7 @@
         <v>30</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F24" s="13" t="s">
         <v>11</v>
@@ -1641,7 +1644,7 @@
         <v>9</v>
       </c>
       <c r="K24" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L24" s="13" t="s">
         <v>10</v>
@@ -1650,7 +1653,7 @@
         <v>30</v>
       </c>
       <c r="N24" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O24" s="13" t="s">
         <v>11</v>
@@ -1687,7 +1690,7 @@
         <v>1</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>10</v>
@@ -1696,7 +1699,7 @@
         <v>30</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>7</v>
@@ -1710,7 +1713,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>10</v>
@@ -1719,7 +1722,7 @@
         <v>29</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F29" s="9" t="s">
         <v>7</v>
@@ -1733,16 +1736,16 @@
         <v>3</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F30" s="9" t="s">
         <v>7</v>
@@ -1756,16 +1759,16 @@
         <v>4</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D31" s="18" t="s">
         <v>29</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F31" s="18" t="s">
         <v>7</v>
@@ -1779,7 +1782,7 @@
         <v>5</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C32" s="13" t="s">
         <v>10</v>
@@ -1788,7 +1791,7 @@
         <v>29</v>
       </c>
       <c r="E32" s="28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F32" s="13" t="s">
         <v>11</v>
@@ -1802,7 +1805,7 @@
         <v>6</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C33" s="18" t="s">
         <v>5</v>
@@ -1811,7 +1814,7 @@
         <v>29</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F33" s="18" t="s">
         <v>7</v>
@@ -1821,25 +1824,25 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="13">
-        <v>7</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C34" s="13" t="s">
+      <c r="A34" s="18">
+        <v>7</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E34" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" s="13" t="s">
+      <c r="D34" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="F34" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" s="18" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1848,7 +1851,7 @@
         <v>8</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C35" s="13" t="s">
         <v>24</v>
@@ -1857,7 +1860,7 @@
         <v>30</v>
       </c>
       <c r="E35" s="28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F35" s="13" t="s">
         <v>11</v>
@@ -1871,7 +1874,7 @@
         <v>9</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C36" s="13" t="s">
         <v>24</v>
@@ -1880,7 +1883,7 @@
         <v>30</v>
       </c>
       <c r="E36" s="28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F36" s="13" t="s">
         <v>11</v>
